--- a/2018_01_03일_계비현황.xlsx
+++ b/2018_01_03일_계비현황.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="-15" windowWidth="14355" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="10455" yWindow="-15" windowWidth="14355" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="2018년" sheetId="10" r:id="rId1"/>
@@ -1889,24 +1889,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1916,60 +1967,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1997,33 +2045,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -2065,33 +2092,6 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2396,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3088,36 +3088,36 @@
       <c r="B16" s="115"/>
     </row>
     <row r="17" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
     </row>
     <row r="18" spans="1:16" ht="17.25" thickBot="1">
       <c r="A18" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="124"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="114" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="134" t="s">
+      <c r="F18" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="141"/>
       <c r="I18" s="104"/>
       <c r="J18" s="104"/>
       <c r="K18" s="101"/>
@@ -3129,13 +3129,13 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="109"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="144"/>
       <c r="I19" s="101"/>
       <c r="J19" s="102"/>
       <c r="K19" s="103"/>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="105"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="145"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="146"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="178"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="148"/>
       <c r="I20" s="101"/>
       <c r="J20" s="102"/>
       <c r="K20" s="103"/>
@@ -3165,13 +3165,13 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="105"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="123"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="135"/>
       <c r="I21" s="101"/>
       <c r="J21" s="102"/>
       <c r="K21" s="103"/>
@@ -3183,13 +3183,13 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="105"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="123"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="135"/>
       <c r="I22" s="101"/>
       <c r="J22" s="102"/>
       <c r="K22" s="103"/>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="105"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="123"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="135"/>
       <c r="I23" s="101"/>
       <c r="J23" s="102"/>
       <c r="K23" s="103"/>
@@ -3219,13 +3219,13 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="105"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="123"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="135"/>
       <c r="I24" s="101"/>
       <c r="J24" s="102"/>
       <c r="K24" s="103"/>
@@ -3237,13 +3237,13 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="105"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="123"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="135"/>
       <c r="I25" s="101"/>
       <c r="J25" s="102"/>
       <c r="K25" s="103"/>
@@ -3255,13 +3255,13 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="105"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="123"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="135"/>
       <c r="I26" s="101"/>
       <c r="J26" s="102"/>
       <c r="K26" s="103"/>
@@ -3273,323 +3273,391 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="105"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="123"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="135"/>
       <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="105"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="123"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="135"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="105"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="123"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="135"/>
       <c r="I29" s="96"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="105"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="123"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="135"/>
       <c r="I30" s="96"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="105"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="123"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="135"/>
       <c r="I31" s="96"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="105"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="123"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="135"/>
       <c r="I32" s="96"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="105"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="123"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="135"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="105"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="123"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="135"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="105"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="123"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="135"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" thickBot="1">
       <c r="A36" s="106"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="129"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
       <c r="D36" s="107"/>
       <c r="E36" s="107"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="130"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="126"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" thickBot="1"/>
     <row r="38" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A38" s="138" t="s">
+      <c r="A38" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="140"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="129"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="137"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="141" t="s">
+      <c r="E39" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="143"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="133"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="108"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
       <c r="I40" s="112"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="105"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="118"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="123"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="118"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="118"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="123"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="118"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="118"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="118"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="118"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="20"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="118"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="118"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="118"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
+      <c r="B51" s="123"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="118"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="20"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="118"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="122"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="118"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="120"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="20"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="118"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="120"/>
+      <c r="B55" s="120"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="20"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="118"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="20"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="118"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="120"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="20"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="E56:H56"/>
     <mergeCell ref="B57:C57"/>
@@ -3600,74 +3668,6 @@
     <mergeCell ref="E54:H54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="E55:H55"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -4451,7 +4451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -5391,36 +5391,36 @@
       <c r="B16" s="115"/>
     </row>
     <row r="17" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
     </row>
     <row r="18" spans="1:16" ht="17.25" thickBot="1">
       <c r="A18" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="124"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="114" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="134" t="s">
+      <c r="F18" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="141"/>
       <c r="I18" s="104"/>
       <c r="J18" s="104"/>
       <c r="K18" s="101"/>
@@ -5434,21 +5434,21 @@
       <c r="A19" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="125">
+      <c r="B19" s="142">
         <v>42899</v>
       </c>
-      <c r="C19" s="125"/>
+      <c r="C19" s="142"/>
       <c r="D19" s="74">
         <v>-520000</v>
       </c>
       <c r="E19" s="74">
         <v>-500</v>
       </c>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="143" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="144"/>
       <c r="I19" s="101"/>
       <c r="J19" s="102"/>
       <c r="K19" s="103"/>
@@ -5462,21 +5462,21 @@
       <c r="A20" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="144">
+      <c r="B20" s="145">
         <v>42942</v>
       </c>
-      <c r="C20" s="145"/>
+      <c r="C20" s="146"/>
       <c r="D20" s="20">
         <v>-321936</v>
       </c>
       <c r="E20" s="20">
         <v>-500</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="G20" s="155"/>
-      <c r="H20" s="178"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="148"/>
       <c r="I20" s="101"/>
       <c r="J20" s="102"/>
       <c r="K20" s="103"/>
@@ -5490,21 +5490,21 @@
       <c r="A21" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="121">
+      <c r="B21" s="123">
         <v>42942</v>
       </c>
-      <c r="C21" s="121"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="20">
         <v>-173380</v>
       </c>
       <c r="E21" s="20">
         <v>-500</v>
       </c>
-      <c r="F21" s="122" t="s">
+      <c r="F21" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="122"/>
-      <c r="H21" s="123"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="135"/>
       <c r="I21" s="101"/>
       <c r="J21" s="102"/>
       <c r="K21" s="103"/>
@@ -5516,13 +5516,13 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="105"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="123"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="135"/>
       <c r="I22" s="101"/>
       <c r="J22" s="102"/>
       <c r="K22" s="103"/>
@@ -5534,13 +5534,13 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="105"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="123"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="135"/>
       <c r="I23" s="101"/>
       <c r="J23" s="102"/>
       <c r="K23" s="103"/>
@@ -5552,13 +5552,13 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="105"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="123"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="135"/>
       <c r="I24" s="101"/>
       <c r="J24" s="102"/>
       <c r="K24" s="103"/>
@@ -5570,13 +5570,13 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="105"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="123"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="135"/>
       <c r="I25" s="101"/>
       <c r="J25" s="102"/>
       <c r="K25" s="103"/>
@@ -5588,13 +5588,13 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="105"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="123"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="135"/>
       <c r="I26" s="101"/>
       <c r="J26" s="102"/>
       <c r="K26" s="103"/>
@@ -5606,339 +5606,407 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="105"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="123"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="135"/>
       <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="105"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="123"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="135"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="105"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="123"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="135"/>
       <c r="I29" s="96"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="105"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="123"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="135"/>
       <c r="I30" s="96"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="105"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="123"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="135"/>
       <c r="I31" s="96"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="105"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="123"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="135"/>
       <c r="I32" s="96"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="105"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="123"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="135"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="105"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="123"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="135"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="105"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="123"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="135"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" thickBot="1">
       <c r="A36" s="106"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="129"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
       <c r="D36" s="107"/>
       <c r="E36" s="107"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="130"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="126"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" thickBot="1"/>
     <row r="38" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A38" s="138" t="s">
+      <c r="A38" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="140"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="129"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="137"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="141" t="s">
+      <c r="E39" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="143"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="133"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="B40" s="128">
+      <c r="B40" s="134">
         <v>42941</v>
       </c>
-      <c r="C40" s="128"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="20">
         <v>70000</v>
       </c>
-      <c r="E40" s="136" t="s">
+      <c r="E40" s="122" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
       <c r="I40" s="112"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="121">
+      <c r="B41" s="123">
         <v>42985</v>
       </c>
-      <c r="C41" s="121"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="20">
         <v>330000</v>
       </c>
-      <c r="E41" s="122" t="s">
+      <c r="E41" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="118"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="123"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="118"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="118"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="123"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="118"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="118"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="118"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="118"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="20"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="118"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="118"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="118"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
+      <c r="B51" s="123"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="118"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="20"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="118"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="122"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="118"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="120"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="20"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="118"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="120"/>
+      <c r="B55" s="120"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="20"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="118"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="20"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="118"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="120"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="20"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="E56:H56"/>
     <mergeCell ref="B57:C57"/>
@@ -5949,74 +6017,6 @@
     <mergeCell ref="E54:H54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="E55:H55"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6034,7 +6034,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B29" sqref="B29:C29"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6644,7 +6644,7 @@
       <c r="L10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="186" t="s">
+      <c r="M10" s="119" t="s">
         <v>25</v>
       </c>
       <c r="N10" s="65">
@@ -6974,36 +6974,36 @@
       <c r="B16" s="99"/>
     </row>
     <row r="17" spans="1:19" ht="17.25" thickBot="1">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
     </row>
     <row r="18" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A18" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="124"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="111" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="134" t="s">
+      <c r="F18" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="141"/>
       <c r="I18" s="104"/>
       <c r="J18" s="104"/>
       <c r="K18" s="101"/>
@@ -7020,21 +7020,21 @@
       <c r="A19" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="125">
+      <c r="B19" s="142">
         <v>42382</v>
       </c>
-      <c r="C19" s="125"/>
+      <c r="C19" s="142"/>
       <c r="D19" s="74">
         <v>-500000</v>
       </c>
       <c r="E19" s="74">
         <v>0</v>
       </c>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="144"/>
       <c r="I19" s="101"/>
       <c r="J19" s="102"/>
       <c r="K19" s="103"/>
@@ -7051,21 +7051,21 @@
       <c r="A20" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="128">
+      <c r="B20" s="134">
         <v>42533</v>
       </c>
-      <c r="C20" s="128"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="20">
         <v>-520000</v>
       </c>
       <c r="E20" s="20">
         <v>-500</v>
       </c>
-      <c r="F20" s="122" t="s">
+      <c r="F20" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="122"/>
-      <c r="H20" s="123"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="135"/>
       <c r="I20" s="101"/>
       <c r="J20" s="102"/>
       <c r="K20" s="103"/>
@@ -7082,21 +7082,21 @@
       <c r="A21" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="121">
+      <c r="B21" s="123">
         <v>42588</v>
       </c>
-      <c r="C21" s="121"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="20">
         <v>-786400</v>
       </c>
       <c r="E21" s="20">
         <v>0</v>
       </c>
-      <c r="F21" s="122" t="s">
+      <c r="F21" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="122"/>
-      <c r="H21" s="123"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="135"/>
       <c r="I21" s="101"/>
       <c r="J21" s="102"/>
       <c r="K21" s="103"/>
@@ -7113,21 +7113,21 @@
       <c r="A22" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="121">
+      <c r="B22" s="123">
         <v>42588</v>
       </c>
-      <c r="C22" s="121"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="20">
         <v>-104630</v>
       </c>
       <c r="E22" s="20">
         <v>-500</v>
       </c>
-      <c r="F22" s="122" t="s">
+      <c r="F22" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="122"/>
-      <c r="H22" s="123"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="135"/>
       <c r="I22" s="101"/>
       <c r="J22" s="102"/>
       <c r="K22" s="103"/>
@@ -7144,21 +7144,21 @@
       <c r="A23" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="121">
+      <c r="B23" s="123">
         <v>42589</v>
       </c>
-      <c r="C23" s="121"/>
+      <c r="C23" s="123"/>
       <c r="D23" s="20">
         <v>-500000</v>
       </c>
       <c r="E23" s="20">
         <v>-500</v>
       </c>
-      <c r="F23" s="122" t="s">
+      <c r="F23" s="124" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="122"/>
-      <c r="H23" s="123"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="135"/>
       <c r="I23" s="101"/>
       <c r="J23" s="102"/>
       <c r="K23" s="103"/>
@@ -7175,21 +7175,21 @@
       <c r="A24" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="121">
+      <c r="B24" s="123">
         <v>42649</v>
       </c>
-      <c r="C24" s="121"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="20">
         <v>-3000000</v>
       </c>
       <c r="E24" s="20">
         <v>-500</v>
       </c>
-      <c r="F24" s="122" t="s">
+      <c r="F24" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="122"/>
-      <c r="H24" s="123"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="135"/>
       <c r="I24" s="101"/>
       <c r="J24" s="102"/>
       <c r="K24" s="103"/>
@@ -7204,13 +7204,13 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="105"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="123"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="135"/>
       <c r="I25" s="101"/>
       <c r="J25" s="102"/>
       <c r="K25" s="103"/>
@@ -7225,13 +7225,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="105"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="123"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="135"/>
       <c r="I26" s="101"/>
       <c r="J26" s="102"/>
       <c r="K26" s="103"/>
@@ -7246,377 +7246,410 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="105"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="123"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="135"/>
       <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="105"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="123"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="135"/>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="105"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="123"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="135"/>
       <c r="I29" s="96"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="105"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="123"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="135"/>
       <c r="I30" s="96"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="105"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="123"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="135"/>
       <c r="I31" s="96"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="105"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="123"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="135"/>
       <c r="I32" s="96"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="105"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="123"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="135"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="105"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="123"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="135"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="105"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="123"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="135"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" thickBot="1">
       <c r="A36" s="106"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="129"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
       <c r="D36" s="107"/>
       <c r="E36" s="107"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="130"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="126"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" thickBot="1"/>
     <row r="38" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A38" s="138" t="s">
+      <c r="A38" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="140"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="129"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="137"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="E39" s="141" t="s">
+      <c r="E39" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="143"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="133"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="121">
+      <c r="B40" s="123">
         <v>42479</v>
       </c>
-      <c r="C40" s="121"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="20">
         <v>20000</v>
       </c>
-      <c r="E40" s="136" t="s">
+      <c r="E40" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
       <c r="I40" s="112"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="121">
+      <c r="B41" s="123">
         <v>42480</v>
       </c>
-      <c r="C41" s="121"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="20">
         <v>40000</v>
       </c>
-      <c r="E41" s="179" t="s">
+      <c r="E41" s="152" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="180"/>
-      <c r="G41" s="180"/>
-      <c r="H41" s="185"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="155"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="B42" s="144">
+      <c r="B42" s="145">
         <v>42531</v>
       </c>
-      <c r="C42" s="145"/>
+      <c r="C42" s="146"/>
       <c r="D42" s="20">
         <v>20000</v>
       </c>
-      <c r="E42" s="182" t="s">
+      <c r="E42" s="149" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="183"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="184"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="151"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="B43" s="121">
+      <c r="B43" s="123">
         <v>42589</v>
       </c>
-      <c r="C43" s="121"/>
+      <c r="C43" s="123"/>
       <c r="D43" s="20">
         <v>360000</v>
       </c>
-      <c r="E43" s="182" t="s">
+      <c r="E43" s="149" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="183"/>
-      <c r="G43" s="183"/>
-      <c r="H43" s="184"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="151"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="121">
+      <c r="B44" s="123">
         <v>42650</v>
       </c>
-      <c r="C44" s="121"/>
+      <c r="C44" s="123"/>
       <c r="D44" s="20">
         <v>3000000</v>
       </c>
-      <c r="E44" s="179" t="s">
+      <c r="E44" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="181"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="154"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="105"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="180"/>
-      <c r="H45" s="181"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="154"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="113"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="113"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="20"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="113"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="20"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="113"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="113"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="113"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
+      <c r="B51" s="123"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="113"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="20"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="113"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="122"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="113"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="120"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="121"/>
       <c r="D54" s="20"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="113"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="120"/>
+      <c r="B55" s="120"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="20"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="113"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="20"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="113"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="120"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="121"/>
       <c r="D57" s="20"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:H36"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="E55:H55"/>
@@ -7633,54 +7666,21 @@
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7697,9 +7697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+      <selection pane="topRight" activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8649,30 +8649,30 @@
       <c r="A18" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="151"/>
+      <c r="C18" s="167"/>
       <c r="D18" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="152" t="s">
+      <c r="E18" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="153"/>
-      <c r="G18" s="154"/>
-      <c r="I18" s="149">
+      <c r="F18" s="169"/>
+      <c r="G18" s="170"/>
+      <c r="I18" s="165">
         <v>1</v>
       </c>
-      <c r="J18" s="148" t="s">
+      <c r="J18" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="164"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="95" t="s">
@@ -8685,282 +8685,282 @@
       <c r="D19" s="20">
         <v>-690500</v>
       </c>
-      <c r="E19" s="126" t="s">
+      <c r="E19" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="146">
+      <c r="B20" s="162">
         <v>42206</v>
       </c>
-      <c r="C20" s="147"/>
+      <c r="C20" s="163"/>
       <c r="D20" s="74">
         <v>60000</v>
       </c>
-      <c r="E20" s="122" t="s">
+      <c r="E20" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="144">
+      <c r="B21" s="145">
         <v>42225</v>
       </c>
-      <c r="C21" s="145"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="20">
         <v>-50000</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="155"/>
-      <c r="G21" s="120"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="121"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="164"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="144">
+      <c r="B22" s="145">
         <v>42225</v>
       </c>
-      <c r="C22" s="145"/>
+      <c r="C22" s="146"/>
       <c r="D22" s="20">
         <v>-172510</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="155"/>
-      <c r="G22" s="120"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="121"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="144">
+      <c r="B23" s="145">
         <v>42225</v>
       </c>
-      <c r="C23" s="145"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="20">
         <v>-48480</v>
       </c>
-      <c r="E23" s="122" t="s">
+      <c r="E23" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="144">
+      <c r="B24" s="145">
         <v>42228</v>
       </c>
-      <c r="C24" s="145"/>
+      <c r="C24" s="146"/>
       <c r="D24" s="20">
         <v>60000</v>
       </c>
-      <c r="E24" s="122" t="s">
+      <c r="E24" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="148"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="148"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="144">
+      <c r="B25" s="145">
         <v>42289</v>
       </c>
-      <c r="C25" s="145"/>
+      <c r="C25" s="146"/>
       <c r="D25" s="20">
         <v>-995500</v>
       </c>
-      <c r="E25" s="122" t="s">
+      <c r="E25" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="144">
+      <c r="B26" s="145">
         <v>42289</v>
       </c>
-      <c r="C26" s="145"/>
+      <c r="C26" s="146"/>
       <c r="D26" s="20">
         <v>-464500</v>
       </c>
-      <c r="E26" s="122" t="s">
+      <c r="E26" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="144">
+      <c r="B27" s="145">
         <v>42289</v>
       </c>
-      <c r="C27" s="145"/>
+      <c r="C27" s="146"/>
       <c r="D27" s="20">
         <v>-201100</v>
       </c>
-      <c r="E27" s="122" t="s">
+      <c r="E27" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
       <c r="I27" s="84"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="144">
+      <c r="B28" s="145">
         <v>42291</v>
       </c>
-      <c r="C28" s="145"/>
+      <c r="C28" s="146"/>
       <c r="D28" s="20">
         <v>-271860</v>
       </c>
-      <c r="E28" s="119" t="s">
+      <c r="E28" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="155"/>
-      <c r="G28" s="120"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="121"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="144">
+      <c r="B29" s="145">
         <v>42291</v>
       </c>
-      <c r="C29" s="145"/>
+      <c r="C29" s="146"/>
       <c r="D29" s="20">
         <v>-201860</v>
       </c>
-      <c r="E29" s="119" t="s">
+      <c r="E29" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="155"/>
-      <c r="G29" s="120"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="121"/>
       <c r="H29" s="96"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="144">
+      <c r="B30" s="145">
         <v>42291</v>
       </c>
-      <c r="C30" s="145"/>
+      <c r="C30" s="146"/>
       <c r="D30" s="20">
         <v>-201860</v>
       </c>
-      <c r="E30" s="119" t="s">
+      <c r="E30" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="155"/>
-      <c r="G30" s="120"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="121"/>
       <c r="H30" s="96"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="144">
+      <c r="B31" s="145">
         <v>42291</v>
       </c>
-      <c r="C31" s="145"/>
+      <c r="C31" s="146"/>
       <c r="D31" s="20">
         <v>-221360</v>
       </c>
-      <c r="E31" s="119" t="s">
+      <c r="E31" s="120" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="155"/>
-      <c r="G31" s="120"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="121"/>
       <c r="H31" s="96"/>
       <c r="I31" s="100"/>
       <c r="J31" t="s">
@@ -8971,79 +8971,79 @@
       <c r="A32" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="144">
+      <c r="B32" s="145">
         <v>42291</v>
       </c>
-      <c r="C32" s="145"/>
+      <c r="C32" s="146"/>
       <c r="D32" s="20">
         <v>-221360</v>
       </c>
-      <c r="E32" s="119" t="s">
+      <c r="E32" s="120" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="155"/>
-      <c r="G32" s="120"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="121"/>
       <c r="H32" s="96"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="144">
+      <c r="B33" s="145">
         <v>42291</v>
       </c>
-      <c r="C33" s="145"/>
+      <c r="C33" s="146"/>
       <c r="D33" s="20">
         <v>-221360</v>
       </c>
-      <c r="E33" s="119" t="s">
+      <c r="E33" s="120" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="155"/>
-      <c r="G33" s="120"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="121"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="144">
+      <c r="B34" s="145">
         <v>42291</v>
       </c>
-      <c r="C34" s="145"/>
+      <c r="C34" s="146"/>
       <c r="D34" s="20">
         <v>-40000</v>
       </c>
-      <c r="E34" s="119" t="s">
+      <c r="E34" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="155"/>
-      <c r="G34" s="120"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="121"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="144">
+      <c r="B35" s="145">
         <v>42292</v>
       </c>
-      <c r="C35" s="145"/>
+      <c r="C35" s="146"/>
       <c r="D35" s="20">
         <v>-80500</v>
       </c>
-      <c r="E35" s="119" t="s">
+      <c r="E35" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="155"/>
-      <c r="G35" s="120"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="121"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="95"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="120"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="121"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="46" t="s">
@@ -9065,6 +9065,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="J18:P26"/>
+    <mergeCell ref="I18:I26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="B33:C33"/>
@@ -9081,32 +9107,6 @@
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="J18:P26"/>
-    <mergeCell ref="I18:I26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -9125,7 +9125,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C39" sqref="C39"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10076,30 +10076,30 @@
       <c r="A18" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="151"/>
+      <c r="C18" s="167"/>
       <c r="D18" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="152" t="s">
+      <c r="E18" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="153"/>
-      <c r="G18" s="154"/>
-      <c r="I18" s="149">
+      <c r="F18" s="169"/>
+      <c r="G18" s="170"/>
+      <c r="I18" s="165">
         <v>1</v>
       </c>
-      <c r="J18" s="163" t="s">
+      <c r="J18" s="171" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="163"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="171"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="83" t="s">
@@ -10112,134 +10112,134 @@
       <c r="D19" s="20">
         <v>-460500</v>
       </c>
-      <c r="E19" s="126" t="s">
+      <c r="E19" s="143" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="171"/>
+      <c r="P19" s="171"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="146">
+      <c r="B20" s="162">
         <v>41684</v>
       </c>
-      <c r="C20" s="147"/>
+      <c r="C20" s="163"/>
       <c r="D20" s="74">
         <v>47500</v>
       </c>
-      <c r="E20" s="122" t="s">
+      <c r="E20" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
+      <c r="P20" s="171"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="144">
+      <c r="B21" s="145">
         <v>41813</v>
       </c>
-      <c r="C21" s="145"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="20">
         <v>-350000</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="155"/>
-      <c r="G21" s="120"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="121"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="171"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="144">
+      <c r="B22" s="145">
         <v>41847</v>
       </c>
-      <c r="C22" s="145"/>
+      <c r="C22" s="146"/>
       <c r="D22" s="20">
         <v>-614070</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="155"/>
-      <c r="G22" s="120"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="121"/>
       <c r="I22" s="84"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="144">
+      <c r="B23" s="145">
         <v>41989</v>
       </c>
-      <c r="C23" s="145"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="20">
         <v>-570000</v>
       </c>
-      <c r="E23" s="122" t="s">
+      <c r="E23" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
       <c r="I23" s="84"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="85"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="145"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="146"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
       <c r="I24" s="84"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="83"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="145"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="146"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
       <c r="I25" s="84"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="83"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="145"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="146"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
       <c r="I26" s="84"/>
     </row>
     <row r="27" spans="1:16">
@@ -10300,43 +10300,61 @@
       <c r="H31" s="156"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="162"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="162"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
     <mergeCell ref="J18:P21"/>
     <mergeCell ref="I18:I21"/>
     <mergeCell ref="B30:H30"/>
@@ -10348,24 +10366,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -11341,11 +11341,11 @@
       <c r="C18" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="152" t="s">
+      <c r="D18" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="153"/>
-      <c r="F18" s="154"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="170"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="76" t="s">
@@ -11357,11 +11357,11 @@
       <c r="C19" s="20">
         <v>40000</v>
       </c>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="73" t="s">
@@ -11373,11 +11373,11 @@
       <c r="C20" s="74">
         <v>-500500</v>
       </c>
-      <c r="D20" s="122" t="s">
+      <c r="D20" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="76" t="s">
@@ -11389,11 +11389,11 @@
       <c r="C21" s="20">
         <v>40000</v>
       </c>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="76" t="s">
@@ -11405,11 +11405,11 @@
       <c r="C22" s="20">
         <v>100000</v>
       </c>
-      <c r="D22" s="122" t="s">
+      <c r="D22" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="76" t="s">
@@ -11421,11 +11421,11 @@
       <c r="C23" s="20">
         <v>-300500</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="76" t="s">
@@ -11437,11 +11437,11 @@
       <c r="C24" s="20">
         <v>-156050</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="81" t="s">
@@ -11453,19 +11453,19 @@
       <c r="C25" s="20">
         <v>-171330</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="76"/>
       <c r="B26" s="77"/>
       <c r="C26" s="20"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="21"/>
@@ -11528,71 +11528,71 @@
       <c r="A32" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="162" t="s">
+      <c r="B32" s="172" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="162" t="s">
+      <c r="B33" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="162"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="162" t="s">
+      <c r="B34" s="172" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="162" t="s">
+      <c r="B35" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="162" t="s">
+      <c r="B36" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="D36" s="162"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
@@ -11626,18 +11626,24 @@
       <c r="A39" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="164" t="s">
+      <c r="B39" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="164"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B39:H39"/>
@@ -11654,12 +11660,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -13457,13 +13457,13 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="172"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="173"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="182"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="32" t="s">
@@ -13475,10 +13475,10 @@
       <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="174" t="s">
+      <c r="D15" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="175"/>
+      <c r="E15" s="184"/>
       <c r="G15" t="s">
         <v>54</v>
       </c>
@@ -13496,10 +13496,10 @@
       <c r="C16" s="19">
         <v>40616</v>
       </c>
-      <c r="D16" s="176" t="s">
+      <c r="D16" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="177"/>
+      <c r="E16" s="186"/>
       <c r="G16" t="s">
         <v>55</v>
       </c>
@@ -13517,10 +13517,10 @@
       <c r="C17" s="19">
         <v>40644</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="168"/>
+      <c r="E17" s="177"/>
       <c r="G17" t="s">
         <v>56</v>
       </c>
@@ -13538,10 +13538,10 @@
       <c r="C18" s="19">
         <v>40750</v>
       </c>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="168"/>
+      <c r="E18" s="177"/>
       <c r="G18" t="s">
         <v>57</v>
       </c>
@@ -13556,10 +13556,10 @@
       <c r="C19" s="19">
         <v>40767</v>
       </c>
-      <c r="D19" s="167" t="s">
+      <c r="D19" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="168"/>
+      <c r="E19" s="177"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="34" t="s">
@@ -13571,10 +13571,10 @@
       <c r="C20" s="19">
         <v>40774</v>
       </c>
-      <c r="D20" s="167" t="s">
+      <c r="D20" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="168"/>
+      <c r="E20" s="177"/>
     </row>
     <row r="21" spans="1:17" ht="17.25" thickBot="1">
       <c r="A21" s="35" t="s">
@@ -13585,8 +13585,8 @@
         <v>1702400</v>
       </c>
       <c r="C21" s="39"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="170"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="179"/>
     </row>
     <row r="22" spans="1:17" ht="17.25" thickBot="1">
       <c r="A22" s="42" t="s">
@@ -13607,11 +13607,11 @@
       <c r="C23" s="41">
         <v>40774</v>
       </c>
-      <c r="D23" s="165" t="s">
+      <c r="D23" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="165"/>
-      <c r="F23" s="166"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="175"/>
     </row>
     <row r="24" spans="1:17">
       <c r="O24" s="21"/>
